--- a/biology/Histoire de la zoologie et de la botanique/Michael_S._Engel/Michael_S._Engel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michael_S._Engel/Michael_S._Engel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael S. Engel, né le 24 septembre 1971 à Creve Coeur (Missouri), est un paléoentomologiste américain. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael S. Engel fait ses études à l'université du Kansas où il obtient deux diplômes, en biologie cellulaire et en chimie, puis à l'université Cornell où il obtient son doctorat d'entomologie en 1998. En 2006, il bénéficie d'une bourse Guggenheim[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael S. Engel fait ses études à l'université du Kansas où il obtient deux diplômes, en biologie cellulaire et en chimie, puis à l'université Cornell où il obtient son doctorat d'entomologie en 1998. En 2006, il bénéficie d'une bourse Guggenheim.
 Il a participé à des fouilles en Asie centrale et en Asie mineure.
-Il enseigne à l'université du Kansas[2],[3] (département d'écologie et de biologie évolutive). 
-Michael S. Engel dirige la division de la zoologie des invertébrés du musée américain d'histoire naturelle de New York, ainsi que la division d'entomologie du musée d'histoire naturelle rattaché à l'université du Kansas[4].
-Il est auteur ou co-auteur de plusieurs centaines d'articles scientifiques[5].
+Il enseigne à l'université du Kansas, (département d'écologie et de biologie évolutive). 
+Michael S. Engel dirige la division de la zoologie des invertébrés du musée américain d'histoire naturelle de New York, ainsi que la division d'entomologie du musée d'histoire naturelle rattaché à l'université du Kansas.
+Il est auteur ou co-auteur de plusieurs centaines d'articles scientifiques.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Innumerable Insects: The Story of the Most Diverse and Myriad Animals on Earth (Natural Histories), éd. Sterling, 2018,
-Evolution of the Insects, avec la collaboration de David Grimaldi[6], éd. Cambridge University Press , 2007</t>
+Evolution of the Insects, avec la collaboration de David Grimaldi, éd. Cambridge University Press , 2007</t>
         </is>
       </c>
     </row>
